--- a/data/trans_orig/P15B_3_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3019</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7069</v>
+        <v>6969</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2396062186029417</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07495615388928552</v>
+        <v>0.07477874906099259</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5610993039852354</v>
+        <v>0.5531470090279579</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>3018</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7324</v>
+        <v>7224</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1482682362632294</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04515458928691551</v>
+        <v>0.04543305172201372</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3597508139776079</v>
+        <v>0.3548370048000185</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>9579</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5529</v>
+        <v>5629</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11654</v>
+        <v>11656</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7603937813970583</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4389006960147648</v>
+        <v>0.4468529909720415</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9250438461107144</v>
+        <v>0.9252212509390074</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -841,19 +841,19 @@
         <v>17340</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13034</v>
+        <v>13134</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19439</v>
+        <v>19433</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8517317637367706</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.640249186022392</v>
+        <v>0.6451629951999814</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9548454107130845</v>
+        <v>0.9545669482779862</v>
       </c>
     </row>
     <row r="6">
@@ -1114,19 +1114,19 @@
         <v>19669</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13559</v>
+        <v>13481</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23954</v>
+        <v>23961</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6953733387748898</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.479373600897694</v>
+        <v>0.4766305184795808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8468896304725638</v>
+        <v>0.8471180764438263</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1148,19 +1148,19 @@
         <v>19668</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13293</v>
+        <v>13420</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25510</v>
+        <v>25090</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5916735876963637</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3998908907867765</v>
+        <v>0.4036989697659494</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7673970261495644</v>
+        <v>0.7547744230363348</v>
       </c>
     </row>
     <row r="11">
@@ -1177,19 +1177,19 @@
         <v>8616</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4331</v>
+        <v>4324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14726</v>
+        <v>14804</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3046266612251101</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1531103695274361</v>
+        <v>0.1528819235561738</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.520626399102306</v>
+        <v>0.5233694815204214</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1211,19 +1211,19 @@
         <v>13574</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7732</v>
+        <v>8152</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19949</v>
+        <v>19822</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4083264123036363</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2326029738504356</v>
+        <v>0.2452255769636654</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6001091092132235</v>
+        <v>0.5963010302340516</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>13009</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7783</v>
+        <v>7609</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19054</v>
+        <v>19216</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.333357879135462</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1994458457569396</v>
+        <v>0.1949905909155211</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4882809890189373</v>
+        <v>0.4924162474747356</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1336,19 +1336,19 @@
         <v>7521</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3070</v>
+        <v>3275</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12243</v>
+        <v>12748</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3007261974826763</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1227514605004971</v>
+        <v>0.1309638306350611</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4895411770021117</v>
+        <v>0.5097313222201858</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -1357,19 +1357,19 @@
         <v>20529</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13043</v>
+        <v>14225</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28568</v>
+        <v>28841</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3206126634910582</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2036877621885272</v>
+        <v>0.222153894196982</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4461529938061595</v>
+        <v>0.4504134873133031</v>
       </c>
     </row>
     <row r="14">
@@ -1386,19 +1386,19 @@
         <v>26014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19969</v>
+        <v>19807</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31240</v>
+        <v>31414</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.666642120864538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5117190109810628</v>
+        <v>0.507583752525265</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8005541542430605</v>
+        <v>0.805009409084479</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1407,19 +1407,19 @@
         <v>17489</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12767</v>
+        <v>12262</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21940</v>
+        <v>21735</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6992738025173237</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5104588229978884</v>
+        <v>0.4902686777798141</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.877248539499503</v>
+        <v>0.8690361693649388</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>41</v>
@@ -1428,19 +1428,19 @@
         <v>43503</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35464</v>
+        <v>35191</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50989</v>
+        <v>49807</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6793873365089418</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5538470061938402</v>
+        <v>0.5495865126866969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7963122378114728</v>
+        <v>0.7778461058030181</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>3797</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1055</v>
+        <v>1078</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8051</v>
+        <v>8210</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3003870240405667</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08346527735871337</v>
+        <v>0.08530867430123504</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6369124152051276</v>
+        <v>0.6494411691714199</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6066</v>
+        <v>6860</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08760223551650001</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2702269361463627</v>
+        <v>0.3055875891264898</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1574,19 +1574,19 @@
         <v>5764</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2039</v>
+        <v>1970</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11612</v>
+        <v>11563</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1642599618196489</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0581088925589331</v>
+        <v>0.05613475243112323</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3309191001855038</v>
+        <v>0.3295266582892027</v>
       </c>
     </row>
     <row r="17">
@@ -1603,19 +1603,19 @@
         <v>8844</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4590</v>
+        <v>4431</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11586</v>
+        <v>11563</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6996129759594333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3630875847948725</v>
+        <v>0.3505588308285803</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9165347226412867</v>
+        <v>0.914691325698765</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -1624,7 +1624,7 @@
         <v>20482</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16382</v>
+        <v>15588</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>22448</v>
@@ -1633,7 +1633,7 @@
         <v>0.9123977644835</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7297730638536374</v>
+        <v>0.6944124108735104</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1645,19 +1645,19 @@
         <v>29326</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23478</v>
+        <v>23527</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33051</v>
+        <v>33120</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8357400381803511</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6690808998144968</v>
+        <v>0.6704733417107976</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9418911074410671</v>
+        <v>0.9438652475688768</v>
       </c>
     </row>
     <row r="18">
@@ -1918,19 +1918,19 @@
         <v>39493</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29314</v>
+        <v>30213</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50041</v>
+        <v>49631</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3236593642224834</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2402364221864298</v>
+        <v>0.2476106728237146</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4101085750068439</v>
+        <v>0.4067455826345667</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -1939,19 +1939,19 @@
         <v>9488</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4998</v>
+        <v>4701</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16955</v>
+        <v>16412</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1011406918914414</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05327803248584367</v>
+        <v>0.05011854096064003</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1807475109307728</v>
+        <v>0.1749567541905621</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>47</v>
@@ -1960,19 +1960,19 @@
         <v>48980</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38219</v>
+        <v>36885</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63362</v>
+        <v>63076</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2269444041033795</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1770819509236852</v>
+        <v>0.1709042069907467</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2935817212849052</v>
+        <v>0.2922562562077105</v>
       </c>
     </row>
     <row r="23">
@@ -1989,19 +1989,19 @@
         <v>82527</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>71979</v>
+        <v>72389</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>92706</v>
+        <v>91807</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6763406357775166</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5898914249931554</v>
+        <v>0.5932544173654332</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.75976357781357</v>
+        <v>0.7523893271762854</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>81</v>
@@ -2010,19 +2010,19 @@
         <v>84318</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>76851</v>
+        <v>77394</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>88808</v>
+        <v>89105</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8988593081085585</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8192524890692258</v>
+        <v>0.8250432458094369</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9467219675141563</v>
+        <v>0.9498814590393595</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>161</v>
@@ -2031,19 +2031,19 @@
         <v>166845</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>152463</v>
+        <v>152749</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>177606</v>
+        <v>178940</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7730555958966204</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7064182787150947</v>
+        <v>0.7077437437922899</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8229180490763148</v>
+        <v>0.8290957930092532</v>
       </c>
     </row>
     <row r="24">
@@ -2377,19 +2377,19 @@
         <v>3846</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>946</v>
+        <v>1023</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9140</v>
+        <v>9566</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1132516260175795</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02785397646928988</v>
+        <v>0.03011616395376586</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2691241736410648</v>
+        <v>0.2816551067928056</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9703</v>
+        <v>9252</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2147579851310399</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5599205957491229</v>
+        <v>0.533907801865098</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2419,19 +2419,19 @@
         <v>7568</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3048</v>
+        <v>2723</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15077</v>
+        <v>14946</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1475467710063323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05943305003008035</v>
+        <v>0.05309148470097472</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2939489325848565</v>
+        <v>0.2913876227897088</v>
       </c>
     </row>
     <row r="5">
@@ -2448,19 +2448,19 @@
         <v>30116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24822</v>
+        <v>24396</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33016</v>
+        <v>32939</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8867483739824205</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7308758263589372</v>
+        <v>0.7183448932071947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9721460235307101</v>
+        <v>0.9698838360462343</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -2469,7 +2469,7 @@
         <v>13607</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7626</v>
+        <v>8077</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>17329</v>
@@ -2478,7 +2478,7 @@
         <v>0.7852420148689601</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4400794042508771</v>
+        <v>0.4660921981349044</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2490,19 +2490,19 @@
         <v>43723</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36214</v>
+        <v>36345</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48243</v>
+        <v>48568</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8524532289936677</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7060510674151438</v>
+        <v>0.708612377210291</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9405669499699209</v>
+        <v>0.9469085152990252</v>
       </c>
     </row>
     <row r="6">
@@ -2594,19 +2594,19 @@
         <v>3802</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10271</v>
+        <v>10494</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1206786587863842</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02914808882350894</v>
+        <v>0.02921584855392298</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3260078720489784</v>
+        <v>0.3330814022011423</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2628,19 +2628,19 @@
         <v>3802</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>965</v>
+        <v>910</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10328</v>
+        <v>10630</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06630969103368073</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01683064363525892</v>
+        <v>0.01586306036282853</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.18013575476402</v>
+        <v>0.1853994519624686</v>
       </c>
     </row>
     <row r="8">
@@ -2657,19 +2657,19 @@
         <v>27703</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21234</v>
+        <v>21011</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30587</v>
+        <v>30585</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8793213412136158</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6739921279510198</v>
+        <v>0.6669185977988568</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9708519111764911</v>
+        <v>0.970784151446077</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -2691,19 +2691,19 @@
         <v>53535</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>47009</v>
+        <v>46707</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>56372</v>
+        <v>56427</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9336903089663192</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8198642452359798</v>
+        <v>0.8146005480375312</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9831693563647411</v>
+        <v>0.9841369396371714</v>
       </c>
     </row>
     <row r="9">
@@ -2795,19 +2795,19 @@
         <v>13843</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8405</v>
+        <v>7298</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22065</v>
+        <v>21187</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.231496692250501</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1405581522390248</v>
+        <v>0.1220424704959097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3689912247969879</v>
+        <v>0.3543173705474068</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2829,19 +2829,19 @@
         <v>13843</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8096</v>
+        <v>8237</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22104</v>
+        <v>21499</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1850387687967816</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1082274612623929</v>
+        <v>0.1101029154387074</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2954651662458384</v>
+        <v>0.2873823479574186</v>
       </c>
     </row>
     <row r="11">
@@ -2858,19 +2858,19 @@
         <v>45954</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37732</v>
+        <v>38610</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51392</v>
+        <v>52499</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.768503307749499</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6310087752030116</v>
+        <v>0.645682629452592</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8594418477609751</v>
+        <v>0.8779575295040899</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -2892,19 +2892,19 @@
         <v>60967</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52706</v>
+        <v>53311</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66714</v>
+        <v>66573</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8149612312032184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7045348337541617</v>
+        <v>0.7126176520425812</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.891772538737607</v>
+        <v>0.8898970845612925</v>
       </c>
     </row>
     <row r="12">
@@ -2996,19 +2996,19 @@
         <v>24173</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16861</v>
+        <v>17521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33153</v>
+        <v>33598</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2528044185690862</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1763315714062988</v>
+        <v>0.1832345503044849</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3467206183065306</v>
+        <v>0.3513749515738981</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -3017,19 +3017,19 @@
         <v>6340</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2823</v>
+        <v>2260</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12919</v>
+        <v>11860</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1302333581069704</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0580015030062195</v>
+        <v>0.04643394140537136</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2654004685775172</v>
+        <v>0.2436451948652913</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -3038,19 +3038,19 @@
         <v>30513</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21986</v>
+        <v>21801</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41130</v>
+        <v>40560</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2114550095535769</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1523634951690767</v>
+        <v>0.1510844063224816</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2850326913220078</v>
+        <v>0.2810819318745475</v>
       </c>
     </row>
     <row r="14">
@@ -3067,19 +3067,19 @@
         <v>71447</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62467</v>
+        <v>62022</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78759</v>
+        <v>78099</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7471955814309138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6532793816934696</v>
+        <v>0.648625048426102</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8236684285937013</v>
+        <v>0.816765449695515</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>41</v>
@@ -3088,19 +3088,19 @@
         <v>42339</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35760</v>
+        <v>36819</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45856</v>
+        <v>46419</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8697666418930297</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7345995314224819</v>
+        <v>0.7563548051347088</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9419984969937798</v>
+        <v>0.9535660585946286</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>111</v>
@@ -3109,19 +3109,19 @@
         <v>113786</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>103169</v>
+        <v>103739</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>122313</v>
+        <v>122498</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7885449904464231</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7149673086779923</v>
+        <v>0.7189180681254527</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8476365048309235</v>
+        <v>0.8489155936775187</v>
       </c>
     </row>
     <row r="15">
@@ -3213,19 +3213,19 @@
         <v>16532</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10232</v>
+        <v>9971</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23023</v>
+        <v>23249</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4210593218260141</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2605910117690491</v>
+        <v>0.2539496022598111</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.586379620052943</v>
+        <v>0.592127838869952</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7649</v>
+        <v>7654</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03782127873687473</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1313700992892118</v>
+        <v>0.1314550895597131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -3255,19 +3255,19 @@
         <v>18734</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11645</v>
+        <v>12073</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28325</v>
+        <v>27929</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1921675550214416</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.119448009448919</v>
+        <v>0.1238359621665925</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2905497312682641</v>
+        <v>0.2864787135575676</v>
       </c>
     </row>
     <row r="17">
@@ -3284,19 +3284,19 @@
         <v>22731</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16240</v>
+        <v>16014</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29031</v>
+        <v>29292</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5789406781739859</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4136203799470569</v>
+        <v>0.4078721611300478</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7394089882309506</v>
+        <v>0.7460503977401889</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -3305,7 +3305,7 @@
         <v>56024</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50577</v>
+        <v>50572</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>58226</v>
@@ -3314,7 +3314,7 @@
         <v>0.9621787212631253</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8686299007107882</v>
+        <v>0.8685449104402869</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3326,19 +3326,19 @@
         <v>78755</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>69164</v>
+        <v>69560</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>85844</v>
+        <v>85416</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8078324449785583</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7094502687317359</v>
+        <v>0.7135212864424323</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8805519905510812</v>
+        <v>0.8761640378334075</v>
       </c>
     </row>
     <row r="18">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6128</v>
+        <v>5205</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01309476255974335</v>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06784129190570687</v>
+        <v>0.05762158942935665</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6690</v>
+        <v>5929</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01009628273138612</v>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05710216624332412</v>
+        <v>0.0506116626642376</v>
       </c>
     </row>
     <row r="20">
@@ -3506,7 +3506,7 @@
         <v>89142</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>84197</v>
+        <v>85120</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>90325</v>
@@ -3515,7 +3515,7 @@
         <v>0.9869052374402566</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9321587080942928</v>
+        <v>0.942378410570644</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -3527,7 +3527,7 @@
         <v>115967</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>110460</v>
+        <v>111221</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>117150</v>
@@ -3536,7 +3536,7 @@
         <v>0.9899037172686139</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9428978337566759</v>
+        <v>0.9493883373357624</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -3631,19 +3631,19 @@
         <v>62196</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>48712</v>
+        <v>48879</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76925</v>
+        <v>75865</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2167323394876638</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1697446666138158</v>
+        <v>0.1703270719971355</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2680569748954998</v>
+        <v>0.264364232308139</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -3652,19 +3652,19 @@
         <v>13446</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7252</v>
+        <v>6739</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24302</v>
+        <v>23207</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05264687529362158</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.028392660922409</v>
+        <v>0.02638448427848218</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.095152351366646</v>
+        <v>0.09086444810774015</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>73</v>
@@ -3673,19 +3673,19 @@
         <v>75642</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60898</v>
+        <v>60005</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94648</v>
+        <v>93715</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1394646422901578</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1122796934474893</v>
+        <v>0.1106338499174912</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1745055905008146</v>
+        <v>0.1727862370158598</v>
       </c>
     </row>
     <row r="23">
@@ -3702,19 +3702,19 @@
         <v>224776</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210047</v>
+        <v>211107</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>238260</v>
+        <v>238093</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7832676605123362</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7319430251045</v>
+        <v>0.7356357676918609</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.830255333386184</v>
+        <v>0.8296729280028644</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>228</v>
@@ -3723,19 +3723,19 @@
         <v>241959</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>231103</v>
+        <v>232198</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>248153</v>
+        <v>248666</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9473531247063784</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9048476486333538</v>
+        <v>0.9091355518922601</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9716073390775908</v>
+        <v>0.9736155157215179</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>441</v>
@@ -3744,19 +3744,19 @@
         <v>466735</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>447729</v>
+        <v>448662</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>481479</v>
+        <v>482372</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8605353577098422</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8254944094991854</v>
+        <v>0.8272137629841403</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8877203065525108</v>
+        <v>0.8893661500825089</v>
       </c>
     </row>
     <row r="24">
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5934</v>
+        <v>5879</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09127295199023588</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2755155566828807</v>
+        <v>0.2729934759488766</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4111,19 +4111,19 @@
         <v>3882</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>888</v>
+        <v>1036</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8342</v>
+        <v>8980</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1934357618753665</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04424438725629876</v>
+        <v>0.05161732493961551</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4156349862154931</v>
+        <v>0.4474343791290983</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -4132,19 +4132,19 @@
         <v>5848</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2156</v>
+        <v>2660</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11917</v>
+        <v>11332</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1405556023456122</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05180757409522659</v>
+        <v>0.06393130467148989</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2864201076696099</v>
+        <v>0.2723548545354066</v>
       </c>
     </row>
     <row r="5">
@@ -4161,7 +4161,7 @@
         <v>19570</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15602</v>
+        <v>15657</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>21536</v>
@@ -4170,7 +4170,7 @@
         <v>0.9087270480097641</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7244844433171191</v>
+        <v>0.7270065240511236</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4182,19 +4182,19 @@
         <v>16188</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11728</v>
+        <v>11090</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19182</v>
+        <v>19034</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8065642381246335</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5843650137845064</v>
+        <v>0.5525656208709017</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9557556127437012</v>
+        <v>0.9483826750603845</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -4203,19 +4203,19 @@
         <v>35758</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29689</v>
+        <v>30274</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39450</v>
+        <v>38946</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8594443976543877</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7135798923303901</v>
+        <v>0.7276451454645934</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9481924259047733</v>
+        <v>0.9360686953285101</v>
       </c>
     </row>
     <row r="6">
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5875</v>
+        <v>5882</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1152657135786444</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3484874893316929</v>
+        <v>0.3488478540424985</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4920</v>
+        <v>4904</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04888243349403743</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2227750125590887</v>
+        <v>0.2220513494564255</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -4349,19 +4349,19 @@
         <v>3023</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>950</v>
+        <v>917</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8579</v>
+        <v>7413</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07761985994034495</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02440062818720708</v>
+        <v>0.02354335611326576</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2202759699417219</v>
+        <v>0.1903308648580826</v>
       </c>
     </row>
     <row r="8">
@@ -4378,7 +4378,7 @@
         <v>14917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10985</v>
+        <v>10978</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>16860</v>
@@ -4387,7 +4387,7 @@
         <v>0.8847342864213557</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6515125106683071</v>
+        <v>0.6511521459575015</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4399,7 +4399,7 @@
         <v>21006</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17166</v>
+        <v>17182</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>22086</v>
@@ -4408,7 +4408,7 @@
         <v>0.9511175665059626</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7772249874409065</v>
+        <v>0.7779486505435781</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4420,19 +4420,19 @@
         <v>35923</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30367</v>
+        <v>31533</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37996</v>
+        <v>38029</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9223801400596551</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.779724030058278</v>
+        <v>0.8096691351419174</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9755993718127929</v>
+        <v>0.9764566438867343</v>
       </c>
     </row>
     <row r="9">
@@ -4524,19 +4524,19 @@
         <v>8994</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4355</v>
+        <v>4486</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15108</v>
+        <v>15007</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2894999983890144</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1401721442106837</v>
+        <v>0.1444090389393667</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4862976606627103</v>
+        <v>0.4830468200380199</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4558,19 +4558,19 @@
         <v>8994</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4254</v>
+        <v>4356</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15305</v>
+        <v>15266</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2190834541706717</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1036179489409575</v>
+        <v>0.1061071394138819</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3728196647670164</v>
+        <v>0.3718486862696402</v>
       </c>
     </row>
     <row r="11">
@@ -4587,19 +4587,19 @@
         <v>22073</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15959</v>
+        <v>16060</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26712</v>
+        <v>26581</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7105000016109856</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5137023393372898</v>
+        <v>0.51695317996198</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8598278557893163</v>
+        <v>0.8555909610606333</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -4621,19 +4621,19 @@
         <v>32059</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25748</v>
+        <v>25787</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36799</v>
+        <v>36697</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7809165458293283</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6271803352329836</v>
+        <v>0.6281513137303598</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8963820510590431</v>
+        <v>0.8938928605861182</v>
       </c>
     </row>
     <row r="12">
@@ -4725,19 +4725,19 @@
         <v>9979</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5093</v>
+        <v>5884</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16254</v>
+        <v>17117</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1691655364857216</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08633866768819055</v>
+        <v>0.09974541316603194</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2755265193647679</v>
+        <v>0.2901516014158711</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -4746,19 +4746,19 @@
         <v>3871</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>985</v>
+        <v>1784</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8023</v>
+        <v>9022</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1006255247020403</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02560491392117724</v>
+        <v>0.04636967339155666</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2085875240127927</v>
+        <v>0.2345591299909622</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -4767,19 +4767,19 @@
         <v>13850</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7959</v>
+        <v>8058</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20751</v>
+        <v>21778</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.142113791392906</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0816706748492385</v>
+        <v>0.08268767742773639</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2129275585507561</v>
+        <v>0.2234635904217853</v>
       </c>
     </row>
     <row r="14">
@@ -4796,19 +4796,19 @@
         <v>49013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42738</v>
+        <v>41875</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53899</v>
+        <v>53108</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8308344635142784</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7244734806352322</v>
+        <v>0.7098483985841286</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9136613323118095</v>
+        <v>0.900254586833968</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -4817,19 +4817,19 @@
         <v>34594</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30442</v>
+        <v>29443</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37480</v>
+        <v>36681</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8993744752979598</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7914124759872074</v>
+        <v>0.765440870009038</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9743950860788227</v>
+        <v>0.9536303266084437</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>80</v>
@@ -4838,19 +4838,19 @@
         <v>83607</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>76706</v>
+        <v>75679</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>89498</v>
+        <v>89399</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8578862086070941</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7870724414492418</v>
+        <v>0.776536409578215</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9183293251507614</v>
+        <v>0.9173123225722636</v>
       </c>
     </row>
     <row r="15">
@@ -4942,19 +4942,19 @@
         <v>6660</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2945</v>
+        <v>2982</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12838</v>
+        <v>13247</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1633244098350994</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07223020119961102</v>
+        <v>0.07313271901817192</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3148287439232733</v>
+        <v>0.3248715534281129</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -4963,19 +4963,19 @@
         <v>5285</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11983</v>
+        <v>10797</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1307892472779505</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05155515909426517</v>
+        <v>0.05151910182573841</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2965302288205752</v>
+        <v>0.2671790978944486</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -4984,19 +4984,19 @@
         <v>11945</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6116</v>
+        <v>6299</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19558</v>
+        <v>20258</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1471300578590281</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07533095749901274</v>
+        <v>0.0775906864631241</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2408927962056511</v>
+        <v>0.2495226528270022</v>
       </c>
     </row>
     <row r="17">
@@ -5013,19 +5013,19 @@
         <v>34117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27939</v>
+        <v>27530</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37832</v>
+        <v>37795</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8366755901649006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6851712560767268</v>
+        <v>0.6751284465718875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.927769798800389</v>
+        <v>0.9268672809818282</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -5034,19 +5034,19 @@
         <v>35126</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28428</v>
+        <v>29614</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38328</v>
+        <v>38329</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8692107527220495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7034697711794249</v>
+        <v>0.7328209021055513</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9484448409057348</v>
+        <v>0.9484808981742616</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>66</v>
@@ -5055,19 +5055,19 @@
         <v>69243</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>61630</v>
+        <v>60930</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75072</v>
+        <v>74889</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8528699421409719</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7591072037943486</v>
+        <v>0.7504773471729986</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9246690425009871</v>
+        <v>0.9224093135368759</v>
       </c>
     </row>
     <row r="18">
@@ -5328,19 +5328,19 @@
         <v>29542</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19971</v>
+        <v>20516</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41006</v>
+        <v>41292</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1493770723618271</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1009837460447371</v>
+        <v>0.1037346767917693</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2073407684596927</v>
+        <v>0.2087899847800534</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -5349,19 +5349,19 @@
         <v>14118</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8168</v>
+        <v>7254</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22691</v>
+        <v>22559</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07374054388422088</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04266470319071783</v>
+        <v>0.0378881539605784</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1185212447961957</v>
+        <v>0.1178279159451271</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -5370,19 +5370,19 @@
         <v>43660</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32600</v>
+        <v>32712</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56805</v>
+        <v>57937</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1121724938987589</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08375766558011472</v>
+        <v>0.08404559819152103</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1459445614901437</v>
+        <v>0.1488528703542169</v>
       </c>
     </row>
     <row r="23">
@@ -5399,19 +5399,19 @@
         <v>168227</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>156763</v>
+        <v>156477</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>177798</v>
+        <v>177253</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8506229276381729</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7926592315403073</v>
+        <v>0.7912100152199467</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.899016253955263</v>
+        <v>0.8962653232082307</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>158</v>
@@ -5420,19 +5420,19 @@
         <v>177335</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>168762</v>
+        <v>168894</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>183285</v>
+        <v>184199</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9262594561157791</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8814787552038044</v>
+        <v>0.8821720840548731</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9573352968092821</v>
+        <v>0.962111846039422</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>321</v>
@@ -5441,19 +5441,19 @@
         <v>345563</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>332418</v>
+        <v>331286</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>356623</v>
+        <v>356511</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8878275061012412</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8540554385098564</v>
+        <v>0.8511471296457833</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9162423344198852</v>
+        <v>0.915954401808479</v>
       </c>
     </row>
     <row r="24">
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8362</v>
+        <v>9187</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.116280230521081</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.323263718202408</v>
+        <v>0.3551587634968988</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -5811,16 +5811,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3513</v>
+        <v>3590</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02762969335398835</v>
+        <v>0.02762969335398836</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1341641605059482</v>
+        <v>0.1371003397424954</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -5829,19 +5829,19 @@
         <v>3731</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10618</v>
+        <v>10089</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0716813676871547</v>
+        <v>0.07168136768715469</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01430914596691963</v>
+        <v>0.01449485416990533</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2039767364898498</v>
+        <v>0.1938129517619527</v>
       </c>
     </row>
     <row r="5">
@@ -5858,7 +5858,7 @@
         <v>22859</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17505</v>
+        <v>16680</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>25867</v>
@@ -5867,7 +5867,7 @@
         <v>0.8837197694789189</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6767362817975922</v>
+        <v>0.6448412365031023</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -5879,7 +5879,7 @@
         <v>25464</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22675</v>
+        <v>22598</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>26188</v>
@@ -5888,7 +5888,7 @@
         <v>0.9723703066460117</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8658358394940521</v>
+        <v>0.8628996602575045</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -5900,19 +5900,19 @@
         <v>48325</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41438</v>
+        <v>41967</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51311</v>
+        <v>51301</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9283186323128453</v>
+        <v>0.9283186323128452</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7960232635101496</v>
+        <v>0.8061870482380471</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9856908540330803</v>
+        <v>0.9855051458300946</v>
       </c>
     </row>
     <row r="6">
@@ -6007,16 +6007,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6634</v>
+        <v>7034</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08453845344638916</v>
+        <v>0.08453845344638915</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.257823901940564</v>
+        <v>0.2733466562976173</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -6028,16 +6028,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4838</v>
+        <v>4265</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05798517270302368</v>
+        <v>0.05798517270302367</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1936373658866792</v>
+        <v>0.1707214625269088</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -6046,19 +6046,19 @@
         <v>3624</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>953</v>
+        <v>908</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8721</v>
+        <v>8779</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0714578633734804</v>
+        <v>0.07145786337348035</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0187940999793949</v>
+        <v>0.01790471730134217</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1719547656423498</v>
+        <v>0.1731088767592416</v>
       </c>
     </row>
     <row r="8">
@@ -6075,16 +6075,16 @@
         <v>23557</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19098</v>
+        <v>18698</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>25732</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.915461546553611</v>
+        <v>0.9154615465536108</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7421760980594363</v>
+        <v>0.7266533437023829</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6096,7 +6096,7 @@
         <v>23534</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20145</v>
+        <v>20718</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>24983</v>
@@ -6105,7 +6105,7 @@
         <v>0.9420148272969764</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8063626341133209</v>
+        <v>0.8292785374730913</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -6117,19 +6117,19 @@
         <v>47090</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41993</v>
+        <v>41935</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49761</v>
+        <v>49806</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9285421366265194</v>
+        <v>0.9285421366265196</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.82804523435765</v>
+        <v>0.8268911232407595</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.981205900020605</v>
+        <v>0.9820952826986578</v>
       </c>
     </row>
     <row r="9">
@@ -6221,19 +6221,19 @@
         <v>8939</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4286</v>
+        <v>4422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14687</v>
+        <v>14288</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2472110697900919</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1185280730597901</v>
+        <v>0.1223022763753803</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4061694321988311</v>
+        <v>0.3951443682263786</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -6245,16 +6245,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3366</v>
+        <v>2696</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04288526770500322</v>
+        <v>0.04288526770500321</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2653018316561379</v>
+        <v>0.2124545125994206</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -6263,19 +6263,19 @@
         <v>9483</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4825</v>
+        <v>4790</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16167</v>
+        <v>15574</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.194136544859484</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09876602526574459</v>
+        <v>0.09805432061366291</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.33096032896369</v>
+        <v>0.3188180437421518</v>
       </c>
     </row>
     <row r="11">
@@ -6292,19 +6292,19 @@
         <v>27220</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21472</v>
+        <v>21871</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31873</v>
+        <v>31737</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7527889302099081</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5938305678011682</v>
+        <v>0.6048556317736213</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8814719269402095</v>
+        <v>0.8776977236246197</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -6313,7 +6313,7 @@
         <v>12144</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9322</v>
+        <v>9992</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>12688</v>
@@ -6322,7 +6322,7 @@
         <v>0.9571147322949968</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7346981683438618</v>
+        <v>0.7875454874005793</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -6334,19 +6334,19 @@
         <v>39365</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32681</v>
+        <v>33274</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44023</v>
+        <v>44058</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.805863455140516</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6690396710363099</v>
+        <v>0.6811819562578481</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9012339747342554</v>
+        <v>0.9019456793863372</v>
       </c>
     </row>
     <row r="12">
@@ -6438,19 +6438,19 @@
         <v>19759</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12293</v>
+        <v>11903</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28654</v>
+        <v>29666</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2540306151747956</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.158051678115381</v>
+        <v>0.1530405822264516</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3683948800865345</v>
+        <v>0.3814051737690934</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -6459,19 +6459,19 @@
         <v>7245</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3170</v>
+        <v>3254</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14668</v>
+        <v>14258</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1307935487956081</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05722728453062648</v>
+        <v>0.05874465993752406</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2647865875061555</v>
+        <v>0.2573987211052186</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -6480,19 +6480,19 @@
         <v>27004</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18360</v>
+        <v>17260</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38539</v>
+        <v>36774</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2027700392391187</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1378633706560535</v>
+        <v>0.1296084056194407</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2893846535569945</v>
+        <v>0.2761364525753372</v>
       </c>
     </row>
     <row r="14">
@@ -6509,19 +6509,19 @@
         <v>58021</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49126</v>
+        <v>48114</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65487</v>
+        <v>65877</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7459693848252044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6316051199134655</v>
+        <v>0.6185948262309067</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.841948321884619</v>
+        <v>0.8469594177735487</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>71</v>
@@ -6530,19 +6530,19 @@
         <v>48149</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40726</v>
+        <v>41136</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52224</v>
+        <v>52140</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8692064512043919</v>
+        <v>0.8692064512043921</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7352134124938462</v>
+        <v>0.7426012788947812</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9427727154693738</v>
+        <v>0.941255340062476</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>128</v>
@@ -6551,19 +6551,19 @@
         <v>106170</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>94635</v>
+        <v>96400</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>114814</v>
+        <v>115914</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7972299607608812</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7106153464430053</v>
+        <v>0.7238635474246627</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8621366293439463</v>
+        <v>0.8703915943805595</v>
       </c>
     </row>
     <row r="15">
@@ -6655,19 +6655,19 @@
         <v>15626</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9296</v>
+        <v>9069</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24829</v>
+        <v>25049</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3875351510170281</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2305424493135714</v>
+        <v>0.2249156201832548</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.615781585631697</v>
+        <v>0.6212482718617065</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -6676,19 +6676,19 @@
         <v>6608</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3498</v>
+        <v>3551</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11081</v>
+        <v>11003</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1160129612454433</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06141880630418866</v>
+        <v>0.06234160524649695</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1945371174413357</v>
+        <v>0.1931648651908179</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -6697,19 +6697,19 @@
         <v>22234</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14411</v>
+        <v>14302</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35034</v>
+        <v>34243</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2285532413766203</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1481388941731312</v>
+        <v>0.147020164364158</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3601333270218443</v>
+        <v>0.3520025310942014</v>
       </c>
     </row>
     <row r="17">
@@ -6726,19 +6726,19 @@
         <v>24695</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15492</v>
+        <v>15272</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31025</v>
+        <v>31252</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.612464848982972</v>
+        <v>0.6124648489829718</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3842184143683019</v>
+        <v>0.3787517281382937</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7694575506864287</v>
+        <v>0.7750843798167452</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>85</v>
@@ -6747,19 +6747,19 @@
         <v>50352</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45879</v>
+        <v>45957</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53462</v>
+        <v>53409</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8839870387545566</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8054628825586642</v>
+        <v>0.806835134809182</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9385811936958114</v>
+        <v>0.9376583947535028</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>114</v>
@@ -6768,19 +6768,19 @@
         <v>75047</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>62247</v>
+        <v>63038</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>82870</v>
+        <v>82979</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7714467586233797</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6398666729781557</v>
+        <v>0.6479974689057985</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8518611058268687</v>
+        <v>0.852979835635842</v>
       </c>
     </row>
     <row r="18">
@@ -7041,19 +7041,19 @@
         <v>49506</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37690</v>
+        <v>37725</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68737</v>
+        <v>67611</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2280552120893863</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1736213802812133</v>
+        <v>0.1737810011844478</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3166409948547591</v>
+        <v>0.3114532688073715</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -7062,19 +7062,19 @@
         <v>16570</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11066</v>
+        <v>10307</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26065</v>
+        <v>25226</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07350809671714692</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04909151097657153</v>
+        <v>0.04572362203334852</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1156314580762026</v>
+        <v>0.1119115880405868</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -7083,19 +7083,19 @@
         <v>66076</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>51507</v>
+        <v>50464</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>85326</v>
+        <v>84127</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1493267738297306</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1164029926757783</v>
+        <v>0.1140451044804603</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1928300866964507</v>
+        <v>0.1901211992242398</v>
       </c>
     </row>
     <row r="23">
@@ -7112,19 +7112,19 @@
         <v>167575</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>148344</v>
+        <v>149470</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>179391</v>
+        <v>179356</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7719447879106138</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6833590051452409</v>
+        <v>0.6885467311926287</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8263786197187867</v>
+        <v>0.8262189988155523</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>329</v>
@@ -7133,19 +7133,19 @@
         <v>208842</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>199347</v>
+        <v>200186</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>214346</v>
+        <v>215105</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9264919032828531</v>
+        <v>0.926491903282853</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8843685419237975</v>
+        <v>0.8880884119594132</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9509084890234285</v>
+        <v>0.9542763779666519</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>496</v>
@@ -7154,19 +7154,19 @@
         <v>376416</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>357166</v>
+        <v>358365</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>390985</v>
+        <v>392028</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8506732261702693</v>
+        <v>0.8506732261702694</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8071699133035495</v>
+        <v>0.8098788007757602</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8835970073242216</v>
+        <v>0.8859548955195397</v>
       </c>
     </row>
     <row r="24">
